--- a/biology/Biochimie/Protéine_globulaire/Protéine_globulaire.xlsx
+++ b/biology/Biochimie/Protéine_globulaire/Protéine_globulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_globulaire</t>
+          <t>Protéine_globulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines globulaires ou sphéroprotéines constituent l'une des trois principales classes de protéines à côté des protéines fibreuses et des protéines membranaires.
 Elles ont un rapport axial inférieur à 10, ce sont donc des sphéroïdes. Elles sont solubles dans l'eau grâce à leurs nombreux groupements hydroxyles pouvant lier leur H avec l'O de l'eau en formant une liaison hydrogène. Les protéines globulaires comprennent les enzymes tout comme les hormones, les anticorps... Ces caractéristiques permettent de distinguer les protéines globulaires des protéines fibreuses.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_globulaire</t>
+          <t>Protéine_globulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure globulaire et solubilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Structure quaternaire
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_globulaire</t>
+          <t>Protéine_globulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Un large éventail de rôles dans l'organisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les protéines globulaires peuvent avoir un rôle structural (par exemple la tubuline constituant les microtubules, ou l'actine G dans les microfilaments d'actine). Cependant, à l'opposé des protéines fibreuses dont le rôle se limite à une fonction structurelle, les protéines globulaires peuvent se comporter comme :
 Enzymes, par catalyse de réactions organiques se déroulant dans l'organisme dans des conditions « douces » et avec une grande spécificité. Diverses estérases jouent ce rôle.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_globulaire</t>
+          <t>Protéine_globulaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'hémoglobine, un membre de la famille des globines.
 Les immunoglobulines (IgA, IgD, IgE, IgG and IgM) et les alpha-, beta- et gamma-globulines.
